--- a/documentação/Backlog_Shitech.xlsx
+++ b/documentação/Backlog_Shitech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66ff8a83318b4257/SPTECH/1Semestre/Sprint2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/felipe_osouza_sptech_school/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F666C3-C1D6-4339-AC43-A4908378D7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EECF8E91-CBCB-44A6-B852-C6475009A8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+  <si>
+    <t>Requisito</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>TELA INICIAL(1.0)</t>
+  </si>
+  <si>
+    <t>1.1. TELA INICIAL. ( Informações da tela)</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
   <si>
     <t>No parte superior da tela inicial haverá uma barra de navegação (1.2). Abaixo terá 3 botões que irão redirecionar o usuário para partes específicas do site, sendo eles da esquerda para direita: QUEM SOMOS, NOSSO PROPÓSITO E SIMULADOR(1.3).  Seção de PRODUTO DISPONÍVEL(1.4). Seção de QUEM SOMOS E NOSSO PROPÓSITO(1.5).  O simulador financeiro (1.6) e ao final o footer do site(1.7)</t>
   </si>
   <si>
-    <t>TELA INICIAL(1.0)</t>
+    <t>1.2. TELA INICIAL. (Barra de navegação)</t>
   </si>
   <si>
     <t>A barra de navegação será composta pelos seguintes itens da esquerda para direita: Um input para o usuário executar pesquisas dentro do site, na parte central a logo do projeto e ao final, um texto de "bem-vindo" com outro texto "entrar" logo abaixo, a direita desses dois textos terá um icone de login.</t>
@@ -50,34 +74,19 @@
     <t>IMAGEM DE ILUSTRAÇÃO ABAIXO</t>
   </si>
   <si>
-    <t>1.1. TELA INICIAL. ( Informações da tela)</t>
-  </si>
-  <si>
-    <t>1.2. TELA INICIAL. (Barra de navegação)</t>
-  </si>
-  <si>
     <t>1.3. TELA INICIAL. (BOTÕES SUPERIORES)</t>
   </si>
   <si>
-    <t>Essencial</t>
+    <t>Haverá 3 botões da esquerda para direita, sendo eles: QUEM SOMOS, que irá direcionar o usuário para a parte de "quem somos"(1.5).O segundo botão será NOSSO PROPÓSITO que irá direcionar o usuário para a parte "nosso propósito"(1.5), Por fim terá um botão SIMULAR que irá direcionar o usuário para a parte de simulação (1.6)</t>
+  </si>
+  <si>
+    <t>1.4. TELA INICIAL. (PRODUTO DISPONÍVEL)</t>
   </si>
   <si>
     <t>Importante</t>
   </si>
   <si>
-    <t>Haverá 3 botões da esquerda para direita, sendo eles: QUEM SOMOS, que irá direcionar o usuário para a parte de "quem somos"(1.5).O segundo botão será NOSSO PROPÓSITO que irá direcionar o usuário para a parte "nosso propósito"(1.5), Por fim terá um botão SIMULAR que irá direcionar o usuário para a parte de simulação (1.6)</t>
-  </si>
-  <si>
-    <t>Classificação</t>
-  </si>
-  <si>
-    <t>Funcional</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>1.4. TELA INICIAL. (PRODUTO DISPONÍVEL)</t>
+    <t>Não</t>
   </si>
   <si>
     <t>Possui um título "PRODUTO DISPONÍVEL". Abaixo haverá uma divisão de dois blocos na parte central dessa seção. A esquerda terá um subtitulo "Aumente a eficiência do seu cultivo em até 40% !!!" e 2 textos logo abaixo, sendo eles respectivamente: "Com nossos sensores que auxiliam na adequação de ambiente em cultivo de Fungos" e "Fique à frente do mercado com nosso inovador sistema de sensores, garantindo a segurança e a integridade do seu cultivo, promovendo o ambiente perfeito para a criação de seus fungos!". O segundo bloco a direita terá a imagem de uma plantação de cogumelo</t>
@@ -175,20 +184,64 @@
     </r>
   </si>
   <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Requisito</t>
-  </si>
-  <si>
-    <t>Não</t>
+    <t>TELA LOGIN (2.0)</t>
+  </si>
+  <si>
+    <t>2.1.TELA LOGIN</t>
+  </si>
+  <si>
+    <t>A tela de login será composta na parte superior pelo nome SHITECH, em baixo um texto escrito login seguido da logo da SHITECH, abaixo da logo ficará os campos de entrada de email e senha, e na parte inferior ficará o botão de Entrar, a baixo ficará a opção de esquecer a senha e a opção de se cadastrar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGEM DE ILUSTRAÇÃO ABAIXO 
+(Cor de fundo: #A68A64 Cor das letras: #936639) </t>
+  </si>
+  <si>
+    <t>2.2. LOGO DA TELA DE CADASTRO</t>
+  </si>
+  <si>
+    <t>2.3. INPUTS DE EMAIL E SENHA</t>
+  </si>
+  <si>
+    <t>2.4. BOTÃO DE ENTRADA 
+(Cor do Botão: #936639 Border Radius: 100px)</t>
+  </si>
+  <si>
+    <t>2.5. BOTÕES DE ESQUECI A SENHA E CADASTRO</t>
+  </si>
+  <si>
+    <t>3.0 TELA DE CADASTRO</t>
+  </si>
+  <si>
+    <t>3.0. TELA DE CADASTRO (INFORMAÇÕES DA TELA)</t>
+  </si>
+  <si>
+    <t>Essa tela será a tela onde o usuário irá se cadastrar no site. Na parte central da tela terá um quadrado branco. Na parte superior do quadrado, alinhado na parte central do eixo horizontal, terá a logo da SHITECH (3.1). Logo abaixo, na parte central estarão os inputs para cadastro (3.2). Na parte final, terá um botão de "CADASTRAR" e abaixo deste botão outro de "Já possui uma conta?" (3.3).</t>
+  </si>
+  <si>
+    <t>3.1. TELA DE CADASTRO (LOGO)</t>
+  </si>
+  <si>
+    <t>3.3. TELA DE CADASTRO (INPUTS)</t>
+  </si>
+  <si>
+    <t>Os inputs são dividos em 3 linhas. Na primeira linha teremos 2 inputs: Razão Social e CNPJ. Na segunda linha teremos 2 inputs: Email e telefone. A ultima linha será composta por 2 inputs: Senha e Confirme a senha.</t>
+  </si>
+  <si>
+    <t>Temos que definir a quantidade de caracteres dos inputs</t>
+  </si>
+  <si>
+    <t>3.4. TELA DE CADASTRO (BOTÕES).</t>
+  </si>
+  <si>
+    <t>Teremos 2 botões abaixo dos inputs. O botão "CADASTRAR" irá direcionar o usuário para a tela de login(2.0) caso o mesmo já tenha preenchido todos os dados corretamente. O botão "Já possui uma conta?" irá direcionar o usuário para a tela do login (2.0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,8 +290,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,21 +337,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -341,20 +412,90 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -362,27 +503,65 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -393,73 +572,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="40">
     <dxf>
       <fill>
         <patternFill>
@@ -471,6 +730,253 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8B368"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8B368"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8B368"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8B368"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8B368"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -494,6 +1000,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -524,6 +1044,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFD1CECB"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFF8B368"/>
       <color rgb="FFFC8C04"/>
@@ -546,19 +1067,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1621762</xdr:colOff>
+      <xdr:colOff>1526512</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3079087</xdr:colOff>
+      <xdr:colOff>2983837</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="CaixaDeTexto 29">
+        <xdr:cNvPr id="15" name="CaixaDeTexto 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3203C1BE-9807-8E08-1091-223BB85D5323}"/>
@@ -572,7 +1093,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3526762" y="0"/>
+          <a:off x="3402937" y="0"/>
           <a:ext cx="1457325" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -607,15 +1128,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>10389</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>163657</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3879272</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>296388</xdr:rowOff>
+      <xdr:colOff>3743325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -625,7 +1146,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30FD0D6D-B278-2070-C949-F087481EF506}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8B9DEF87-FD18-2FAA-C377-3E28D335EB0B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3203C1BE-9807-8E08-1091-223BB85D5323}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -641,8 +1162,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1915389" y="4579793"/>
-          <a:ext cx="3868883" cy="314572"/>
+          <a:off x="1876425" y="4600575"/>
+          <a:ext cx="3743325" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -654,13 +1175,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>10390</xdr:colOff>
+      <xdr:colOff>865</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3762376</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>8659</xdr:rowOff>
     </xdr:to>
@@ -688,8 +1209,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1915390" y="6416386"/>
-          <a:ext cx="3868884" cy="277091"/>
+          <a:off x="1877290" y="6410325"/>
+          <a:ext cx="3761511" cy="275359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -701,19 +1222,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1731</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3762375</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Imagem 6">
+        <xdr:cNvPr id="16" name="Imagem 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13D49F8-E2EB-58A8-3B97-8A644B4AE9FB}"/>
@@ -735,8 +1256,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1906731" y="8918864"/>
-          <a:ext cx="3894860" cy="2121478"/>
+          <a:off x="1876425" y="8953500"/>
+          <a:ext cx="3762375" cy="2124075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -748,19 +1269,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1220240</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3762375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Imagem 10">
+        <xdr:cNvPr id="10" name="Imagem 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66D8191-F090-AE1C-E570-C84297019FB7}"/>
@@ -782,8 +1303,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1914524" y="14374091"/>
-          <a:ext cx="3869749" cy="1220240"/>
+          <a:off x="1876425" y="14592300"/>
+          <a:ext cx="3762375" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -795,15 +1316,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8660</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>181840</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>17317</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -829,8 +1350,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1913660" y="19985181"/>
-          <a:ext cx="3870614" cy="2060863"/>
+          <a:off x="1876425" y="20402550"/>
+          <a:ext cx="3771900" cy="2076450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -849,8 +1370,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>8659</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>5546</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1081871</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -889,22 +1410,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1766240</xdr:colOff>
+      <xdr:colOff>1632890</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>121476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3004704</xdr:colOff>
+      <xdr:colOff>2871354</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>69735</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Imagem 60">
+        <xdr:cNvPr id="13" name="Imagem 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BA48B1-FFF9-4CF3-1C8E-0F892640B173}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{31A50755-1134-7689-BE33-375DEED707B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,8 +1444,431 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3671240" y="121476"/>
-          <a:ext cx="1238464" cy="1238464"/>
+          <a:off x="3509315" y="121476"/>
+          <a:ext cx="1238464" cy="1234134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3762375</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2447925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DAB7A1D-70B7-6033-8643-C3DB1A965B53}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00BA48B1-FFF9-4CF3-1C8E-0F892640B173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="34232850"/>
+          <a:ext cx="3771900" cy="2447925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>3676650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagem 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDE2F9F-BFE6-83A6-6A4F-55A17FDA071C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2DAB7A1D-70B7-6033-8643-C3DB1A965B53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="37080825"/>
+          <a:ext cx="3781425" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagem 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780ECF20-52E2-2386-F7CC-6602D0DB39D4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7CDE2F9F-BFE6-83A6-6A4F-55A17FDA071C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="46101000"/>
+          <a:ext cx="3781425" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Imagem 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75BA37D1-4DC4-63C6-C6FE-7B3460C795A5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5533B5DC-FBED-45A5-B8BC-F6C802C5855C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="29308425"/>
+          <a:ext cx="3810000" cy="2428875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4657725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Imagem 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2981B7-B36E-B7AB-4647-19CB63161139}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E03F04B4-E1E5-8708-51C1-2804D90FDA6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="31946850"/>
+          <a:ext cx="3781425" cy="4657725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3209925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1447800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Imagem 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5801189A-8878-6C45-EAF9-A9ADE5590529}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BC2981B7-B36E-B7AB-4647-19CB63161139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="37014150"/>
+          <a:ext cx="2790825" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Imagem 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4F7ECD-1243-883A-A0AF-2451D0EF1262}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5801189A-8878-6C45-EAF9-A9ADE5590529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="38681025"/>
+          <a:ext cx="3781425" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>866775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Imagem 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C0D167-DC09-36DE-3891-3785F7B021BC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CA4F7ECD-1243-883A-A0AF-2451D0EF1262}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="40443150"/>
+          <a:ext cx="3771900" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3752850</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1495425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Imagem 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92748DB8-6479-48C8-A2F3-335F2A121E8C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D6C0D167-DC09-36DE-3891-3785F7B021BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="56807100"/>
+          <a:ext cx="3752850" cy="1495425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -931,10 +1878,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1256,574 +2199,751 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E53" sqref="C53:E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="56.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="101.45" customHeight="1">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="109.15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="18"/>
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="78.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>12</v>
-      </c>
+      <c r="C6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="18"/>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" ht="24" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="36"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="90.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>12</v>
-      </c>
+      <c r="C10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" ht="21" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="36"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="147.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="18"/>
-      <c r="C15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:9" ht="167.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+    </row>
+    <row r="16" spans="1:9" ht="167.25" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="36"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" ht="232.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="246.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="1:5" ht="96" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="18"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="36"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="C21" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="332.25">
       <c r="A22" s="1"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="24" spans="1:5" ht="161.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="36"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="18"/>
-      <c r="C25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:5" ht="296.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="291" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="22" t="s">
+      <c r="C26" s="27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D26" s="32"/>
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="18"/>
-      <c r="C27" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+    </row>
+    <row r="28" spans="1:5" ht="85.5" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="18"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33"/>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="75.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="21"/>
+      <c r="C30" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="33"/>
+    </row>
+    <row r="31" spans="1:5" ht="39.75" customHeight="1">
+      <c r="B31" s="21"/>
+      <c r="C31" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="33"/>
+    </row>
+    <row r="32" spans="1:5" ht="186" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="21"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="35"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="21"/>
+      <c r="C33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" ht="368.25" customHeight="1">
+      <c r="B34" s="21"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="21"/>
+      <c r="C35" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" ht="114.75" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="21"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="27" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="21"/>
+      <c r="C37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" ht="125.25" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="21"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" ht="14.45" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="21"/>
+      <c r="C39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" ht="69" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="22"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="96" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="52"/>
+      <c r="C42" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="49"/>
+      <c r="E42" s="46"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="52"/>
+      <c r="C43" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="46"/>
+    </row>
+    <row r="44" spans="1:5" ht="193.5" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="52"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="46"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="52"/>
+      <c r="C45" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="52"/>
+      <c r="C46" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="49"/>
+      <c r="E46" s="46"/>
+    </row>
+    <row r="47" spans="1:5" ht="290.25" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="52"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="46"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="52"/>
+      <c r="C48" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="57.75">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="52"/>
+      <c r="C49" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="49"/>
+      <c r="E49" s="46"/>
+      <c r="G49" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="52"/>
+      <c r="C50" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="49"/>
+      <c r="E50" s="46"/>
+    </row>
+    <row r="51" spans="1:7" ht="107.25" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="52"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="47"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="19"/>
+      <c r="C52" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="65.25" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="52"/>
+      <c r="C53" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="54"/>
+      <c r="E53" s="55"/>
+    </row>
+    <row r="54" spans="1:7" ht="16.5" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="49"/>
+      <c r="E54" s="46"/>
+    </row>
+    <row r="55" spans="1:7" ht="119.25" customHeight="1">
+      <c r="B55" s="57"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="47"/>
+    </row>
+    <row r="56" spans="1:7" ht="14.45" customHeight="1">
+      <c r="B56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.45" customHeight="1">
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.45" customHeight="1">
+      <c r="B58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.45" customHeight="1">
+      <c r="B59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.45" customHeight="1">
+      <c r="B60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.45" customHeight="1">
+      <c r="B61" s="11"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.45" customHeight="1">
+      <c r="B62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.45" customHeight="1">
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.45" customHeight="1">
+      <c r="B64" s="11"/>
+    </row>
+    <row r="65" spans="2:2" ht="14.45" customHeight="1">
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="2:2" ht="14.45" customHeight="1">
+      <c r="B66" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D18:D20"/>
+  <mergeCells count="19">
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D30:D32"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B17:B28"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E26:E28"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="B3:B16"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="B41:B55"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="B29:B40"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4 D14 D18 D22 D26 D6 D10 D28:D51">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+  <conditionalFormatting sqref="D3:D6 D9:D10 D13:D14 D17:D18 D21:D22 D25:D26 D29">
+    <cfRule type="cellIs" dxfId="39" priority="58" operator="equal">
       <formula>"Importante"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="62" operator="equal">
       <formula>"Desejável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="63" operator="equal">
       <formula>"Essencial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="61" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 E6 E14 E18 E22 E26 E10 E28:E51">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="E3:E6 E9:E10 E13:E14 E17:E18 E21:E22 E29 E37:E38 E25:E26">
+    <cfRule type="cellIs" dxfId="35" priority="59" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="60" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="64" operator="equal">
       <formula>"Essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="32" priority="47" operator="equal">
+      <formula>"Importante"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="48" operator="equal">
+      <formula>"Desejável"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="49" operator="equal">
+      <formula>"Essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="29" priority="45" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="46" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:E30 D33 D36 D39">
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="30" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+      <formula>"Importante"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"Desejável"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+      <formula>"Essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+      <formula>"Importante"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"Desejável"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+      <formula>"Essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>"Importante"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"Desejável"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>"Essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>"Importante"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"Desejável"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>"Essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentação/Backlog_Shitech.xlsx
+++ b/documentação/Backlog_Shitech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bserp\Downloads\SHITECH\documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99AF372C-CA99-413B-BCA7-43763F2C1A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E63B192-6B01-42F2-80F1-0EED6F7676C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Backlog SHITECH" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Backlog SHITECH'!$B$2:$J$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Backlog SHITECH'!$B$2:$J$134</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +43,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="21">
+  <futureMetadata name="XLRICHVALUE" count="23">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -191,8 +191,22 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="22"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="21">
+  <valueMetadata count="23">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -255,6 +269,12 @@
     </bk>
     <bk>
       <rc t="1" v="20"/>
+    </bk>
+    <bk>
+      <rc t="1" v="21"/>
+    </bk>
+    <bk>
+      <rc t="1" v="22"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -1437,7 +1457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1536,12 +1556,121 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1551,13 +1680,168 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1567,67 +1851,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1638,204 +1865,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4451,8 +4480,8 @@
       <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>958787</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6287</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>65105</xdr:rowOff>
     </xdr:to>
@@ -4573,7 +4602,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="21">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="23">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -4658,6 +4687,14 @@
     <v>20</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>21</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>22</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -4693,6 +4730,8 @@
   <rel r:id="rId19"/>
   <rel r:id="rId20"/>
   <rel r:id="rId21"/>
+  <rel r:id="rId22"/>
+  <rel r:id="rId23"/>
 </richValueRels>
 </file>
 
@@ -5013,10 +5052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y238"/>
+  <dimension ref="A1:Y239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L133" sqref="L133"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R132" sqref="R132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5035,15 +5074,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="109.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="101"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="103"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
@@ -5076,7 +5115,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="94" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -5106,21 +5145,21 @@
     </row>
     <row r="4" spans="1:10" ht="85.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="108"/>
+      <c r="B5" s="94"/>
       <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
@@ -5133,56 +5172,56 @@
       <c r="F5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" spans="1:10" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="94"/>
+      <c r="C6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="54" t="s">
+      <c r="B7" s="94"/>
+      <c r="C7" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="92"/>
     </row>
     <row r="8" spans="1:10" ht="53.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="75" t="e" vm="1">
+      <c r="B8" s="94"/>
+      <c r="C8" s="45" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="108"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
@@ -5195,68 +5234,68 @@
       <c r="F9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="75"/>
     </row>
     <row r="10" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="57" t="s">
+      <c r="B10" s="94"/>
+      <c r="C10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="54" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="92"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="75" t="e" vm="2">
+      <c r="B12" s="94"/>
+      <c r="C12" s="45" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="77"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:10" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="108"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
@@ -5269,74 +5308,74 @@
       <c r="F14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52">
+      <c r="G14" s="73"/>
+      <c r="H14" s="74">
         <v>3</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="74">
         <v>3</v>
       </c>
-      <c r="J14" s="53" t="s">
+      <c r="J14" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="54" t="s">
+      <c r="B17" s="94"/>
+      <c r="C17" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="56"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="92"/>
     </row>
     <row r="18" spans="1:10" ht="264.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="75" t="e" vm="3">
+      <c r="B18" s="94"/>
+      <c r="C18" s="45" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="77"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="108"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
@@ -5349,68 +5388,68 @@
       <c r="F19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="75"/>
     </row>
     <row r="20" spans="1:10" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="57" t="s">
+      <c r="B20" s="96"/>
+      <c r="C20" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="54" t="s">
+      <c r="B21" s="96"/>
+      <c r="C21" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="92"/>
     </row>
     <row r="22" spans="1:10" ht="174.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="75" t="e" vm="4">
+      <c r="B22" s="96"/>
+      <c r="C22" s="45" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="77"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="77"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="110"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="5" t="s">
         <v>28</v>
       </c>
@@ -5423,68 +5462,68 @@
       <c r="F24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="53"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="75"/>
     </row>
     <row r="25" spans="1:10" ht="268.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="57" t="s">
+      <c r="B25" s="96"/>
+      <c r="C25" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="59"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="54" t="s">
+      <c r="B26" s="96"/>
+      <c r="C26" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="92"/>
     </row>
     <row r="27" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="78" t="e" vm="5">
+      <c r="B27" s="96"/>
+      <c r="C27" s="115" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="80"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="117"/>
     </row>
     <row r="28" spans="1:10" ht="252" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="80"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="117"/>
     </row>
     <row r="29" spans="1:10" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="110"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="5" t="s">
         <v>31</v>
       </c>
@@ -5497,56 +5536,56 @@
       <c r="F29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" ht="223.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="57" t="s">
+      <c r="B30" s="96"/>
+      <c r="C30" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="59"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="54" t="s">
+      <c r="B31" s="96"/>
+      <c r="C31" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="92"/>
     </row>
     <row r="32" spans="1:10" ht="190.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="75" t="e" vm="6">
+      <c r="B32" s="96"/>
+      <c r="C32" s="45" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="77"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="97" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -5576,48 +5615,48 @@
     </row>
     <row r="34" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="57" t="s">
+      <c r="B34" s="98"/>
+      <c r="C34" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="59"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="112"/>
-      <c r="C35" s="114" t="s">
+      <c r="B35" s="98"/>
+      <c r="C35" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="102"/>
     </row>
     <row r="36" spans="1:10" ht="258.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="112"/>
-      <c r="C36" s="45" t="e" vm="7">
+      <c r="B36" s="98"/>
+      <c r="C36" s="103" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="47"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="105"/>
     </row>
     <row r="37" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="112"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="5" t="s">
         <v>38</v>
       </c>
@@ -5630,55 +5669,55 @@
       <c r="F37" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="51"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="53"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="75"/>
     </row>
     <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="57" t="s">
+      <c r="B38" s="98"/>
+      <c r="C38" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="59"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="45" t="s">
+      <c r="B39" s="98"/>
+      <c r="C39" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="47"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="105"/>
     </row>
     <row r="40" spans="1:10" ht="229.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="112"/>
-      <c r="C40" s="45" t="e" vm="8">
+      <c r="B40" s="98"/>
+      <c r="C40" s="103" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="47"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="105"/>
     </row>
     <row r="41" spans="1:10" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="112"/>
+      <c r="B41" s="98"/>
       <c r="C41" s="5" t="s">
         <v>40</v>
       </c>
@@ -5691,56 +5730,56 @@
       <c r="F41" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="53"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="75"/>
     </row>
     <row r="42" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="57" t="s">
+      <c r="B42" s="98"/>
+      <c r="C42" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="59"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="50"/>
     </row>
     <row r="43" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="60" t="s">
+      <c r="B43" s="98"/>
+      <c r="C43" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="62"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="108"/>
     </row>
     <row r="44" spans="1:10" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="60" t="e" vm="9">
+      <c r="B44" s="98"/>
+      <c r="C44" s="106" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="62"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="108"/>
     </row>
     <row r="45" spans="1:10" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="112"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="6" t="s">
         <v>42</v>
       </c>
@@ -5753,56 +5792,56 @@
       <c r="F45" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="51"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="53"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="75"/>
     </row>
     <row r="46" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="112"/>
-      <c r="C46" s="57" t="s">
+      <c r="B46" s="98"/>
+      <c r="C46" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="59"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="60" t="s">
+      <c r="B47" s="98"/>
+      <c r="C47" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="62"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="108"/>
     </row>
     <row r="48" spans="1:10" ht="85.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="60" t="e" vm="10">
+      <c r="B48" s="98"/>
+      <c r="C48" s="106" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="62"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="108"/>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="112"/>
+      <c r="B49" s="98"/>
       <c r="C49" s="6" t="s">
         <v>44</v>
       </c>
@@ -5815,56 +5854,56 @@
       <c r="F49" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="53"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="75"/>
     </row>
     <row r="50" spans="1:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="110"/>
-      <c r="C50" s="57" t="s">
+      <c r="B50" s="96"/>
+      <c r="C50" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="59"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="50"/>
     </row>
     <row r="51" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="60" t="s">
+      <c r="B51" s="96"/>
+      <c r="C51" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="62"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
+      <c r="J51" s="108"/>
     </row>
     <row r="52" spans="1:10" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="63" t="e" vm="11">
+      <c r="B52" s="99"/>
+      <c r="C52" s="51" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="65"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="134"/>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="93" t="s">
         <v>46</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -5894,49 +5933,49 @@
     </row>
     <row r="54" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="57" t="s">
+      <c r="B54" s="94"/>
+      <c r="C54" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="59"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="50"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="108"/>
-      <c r="C55" s="66" t="s">
+      <c r="B55" s="94"/>
+      <c r="C55" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="68"/>
+      <c r="D55" s="136"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="136"/>
+      <c r="G55" s="136"/>
+      <c r="H55" s="136"/>
+      <c r="I55" s="136"/>
+      <c r="J55" s="137"/>
     </row>
     <row r="56" spans="1:10" ht="250.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="108"/>
-      <c r="C56" s="42" t="e" vm="12">
+      <c r="B56" s="94"/>
+      <c r="C56" s="130" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="44"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="132"/>
     </row>
     <row r="57" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="108"/>
+      <c r="B57" s="94"/>
       <c r="C57" s="7" t="s">
         <v>49</v>
       </c>
@@ -5949,56 +5988,56 @@
       <c r="F57" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="51"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="53"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="75"/>
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="108"/>
-      <c r="C58" s="57" t="s">
+      <c r="B58" s="94"/>
+      <c r="C58" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="59"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="50"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="108"/>
-      <c r="C59" s="104" t="s">
+      <c r="B59" s="94"/>
+      <c r="C59" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="105"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="105"/>
-      <c r="I59" s="105"/>
-      <c r="J59" s="106"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="59"/>
     </row>
     <row r="60" spans="1:10" ht="245.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="108"/>
-      <c r="C60" s="48" t="e" vm="13">
+      <c r="B60" s="94"/>
+      <c r="C60" s="60" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="117"/>
-      <c r="H60" s="117"/>
-      <c r="I60" s="117"/>
-      <c r="J60" s="50"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="62"/>
     </row>
     <row r="61" spans="1:10" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="108"/>
+      <c r="B61" s="94"/>
       <c r="C61" s="7" t="s">
         <v>51</v>
       </c>
@@ -6011,56 +6050,56 @@
       <c r="F61" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="51"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="53"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="75"/>
     </row>
     <row r="62" spans="1:10" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="108"/>
-      <c r="C62" s="57" t="s">
+      <c r="B62" s="94"/>
+      <c r="C62" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="59"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="50"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="108"/>
-      <c r="C63" s="104" t="s">
+      <c r="B63" s="94"/>
+      <c r="C63" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="105"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="105"/>
-      <c r="I63" s="105"/>
-      <c r="J63" s="106"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="59"/>
     </row>
     <row r="64" spans="1:10" ht="364.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="108"/>
-      <c r="C64" s="48" t="e" vm="14">
+      <c r="B64" s="94"/>
+      <c r="C64" s="60" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="50"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="62"/>
     </row>
     <row r="65" spans="1:10" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="109"/>
+      <c r="B65" s="95"/>
       <c r="C65" s="7" t="s">
         <v>53</v>
       </c>
@@ -6073,54 +6112,54 @@
       <c r="F65" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="51"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="53"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="75"/>
     </row>
     <row r="66" spans="1:10" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="118" t="s">
+      <c r="B66" s="94"/>
+      <c r="C66" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="59"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="50"/>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="108"/>
-      <c r="C67" s="104" t="s">
+      <c r="B67" s="94"/>
+      <c r="C67" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="105"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="105"/>
-      <c r="J67" s="106"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="59"/>
     </row>
     <row r="68" spans="1:10" ht="85.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="108"/>
-      <c r="C68" s="48" t="e" vm="15">
+      <c r="B68" s="94"/>
+      <c r="C68" s="60" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="50"/>
+      <c r="D68" s="133"/>
+      <c r="E68" s="133"/>
+      <c r="F68" s="133"/>
+      <c r="G68" s="133"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="133"/>
+      <c r="J68" s="62"/>
     </row>
     <row r="69" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="125" t="s">
+      <c r="B69" s="76" t="s">
         <v>55</v>
       </c>
       <c r="C69" s="21" t="s">
@@ -6149,20 +6188,20 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="50.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="126"/>
-      <c r="C70" s="57" t="s">
+      <c r="B70" s="77"/>
+      <c r="C70" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="59"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="50"/>
     </row>
     <row r="71" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="126"/>
+      <c r="B71" s="77"/>
       <c r="C71" s="21" t="s">
         <v>59</v>
       </c>
@@ -6175,52 +6214,52 @@
       <c r="F71" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G71" s="36"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="38"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="41"/>
     </row>
     <row r="72" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="126"/>
-      <c r="C72" s="57" t="s">
+      <c r="B72" s="77"/>
+      <c r="C72" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="59"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="50"/>
     </row>
     <row r="73" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="126"/>
-      <c r="C73" s="131" t="s">
+      <c r="B73" s="77"/>
+      <c r="C73" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D73" s="132"/>
-      <c r="E73" s="132"/>
-      <c r="F73" s="132"/>
-      <c r="G73" s="132"/>
-      <c r="H73" s="132"/>
-      <c r="I73" s="132"/>
-      <c r="J73" s="133"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="44"/>
     </row>
     <row r="74" spans="1:10" ht="85.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="126"/>
-      <c r="C74" s="128" t="e" vm="16">
+      <c r="B74" s="77"/>
+      <c r="C74" s="79" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="D74" s="129"/>
-      <c r="E74" s="129"/>
-      <c r="F74" s="129"/>
-      <c r="G74" s="129"/>
-      <c r="H74" s="129"/>
-      <c r="I74" s="129"/>
-      <c r="J74" s="130"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="80"/>
+      <c r="G74" s="80"/>
+      <c r="H74" s="80"/>
+      <c r="I74" s="80"/>
+      <c r="J74" s="81"/>
     </row>
     <row r="75" spans="1:10" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="126"/>
+      <c r="B75" s="77"/>
       <c r="C75" s="18" t="s">
         <v>62</v>
       </c>
@@ -6233,52 +6272,52 @@
       <c r="F75" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G75" s="36"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="41"/>
     </row>
     <row r="76" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="126"/>
-      <c r="C76" s="57" t="s">
+      <c r="B76" s="77"/>
+      <c r="C76" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="59"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="50"/>
     </row>
     <row r="77" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="126"/>
-      <c r="C77" s="131" t="s">
+      <c r="B77" s="77"/>
+      <c r="C77" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D77" s="132"/>
-      <c r="E77" s="132"/>
-      <c r="F77" s="132"/>
-      <c r="G77" s="132"/>
-      <c r="H77" s="132"/>
-      <c r="I77" s="132"/>
-      <c r="J77" s="133"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="44"/>
     </row>
     <row r="78" spans="1:10" ht="65.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="126"/>
-      <c r="C78" s="57" t="e" vm="17">
+      <c r="B78" s="77"/>
+      <c r="C78" s="48" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="D78" s="58"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="58"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="59"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="50"/>
     </row>
     <row r="79" spans="1:10" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="126"/>
+      <c r="B79" s="77"/>
       <c r="C79" s="18" t="s">
         <v>64</v>
       </c>
@@ -6291,91 +6330,91 @@
       <c r="F79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G79" s="36"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="38"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="41"/>
     </row>
     <row r="80" spans="1:10" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="126"/>
-      <c r="C80" s="57" t="s">
+      <c r="B80" s="77"/>
+      <c r="C80" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="58"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="59"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="49"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="50"/>
     </row>
     <row r="81" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="126"/>
-      <c r="C81" s="131" t="s">
+      <c r="B81" s="77"/>
+      <c r="C81" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D81" s="132"/>
-      <c r="E81" s="132"/>
-      <c r="F81" s="132"/>
-      <c r="G81" s="132"/>
-      <c r="H81" s="132"/>
-      <c r="I81" s="132"/>
-      <c r="J81" s="133"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="44"/>
     </row>
     <row r="82" spans="2:10" ht="157.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="126"/>
-      <c r="C82" s="75" t="e" vm="18">
+      <c r="B82" s="77"/>
+      <c r="C82" s="45" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76"/>
-      <c r="H82" s="76"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="77"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="47"/>
     </row>
     <row r="83" spans="2:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="126"/>
-      <c r="C83" s="57" t="s">
+      <c r="B83" s="77"/>
+      <c r="C83" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="59"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="50"/>
     </row>
     <row r="84" spans="2:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="126"/>
-      <c r="C84" s="131" t="s">
+      <c r="B84" s="77"/>
+      <c r="C84" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D84" s="132"/>
-      <c r="E84" s="132"/>
-      <c r="F84" s="132"/>
-      <c r="G84" s="132"/>
-      <c r="H84" s="132"/>
-      <c r="I84" s="132"/>
-      <c r="J84" s="133"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="44"/>
     </row>
     <row r="85" spans="2:10" ht="157.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="126"/>
-      <c r="C85" s="57" t="e" vm="19">
+      <c r="B85" s="77"/>
+      <c r="C85" s="48" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="58"/>
-      <c r="I85" s="58"/>
-      <c r="J85" s="59"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="50"/>
     </row>
     <row r="86" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="126"/>
+      <c r="B86" s="77"/>
       <c r="C86" s="18" t="s">
         <v>67</v>
       </c>
@@ -6388,54 +6427,54 @@
       <c r="F86" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G86" s="36"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="38"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="2:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="126"/>
-      <c r="C87" s="57" t="s">
+      <c r="B87" s="77"/>
+      <c r="C87" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="58"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="58"/>
-      <c r="J87" s="59"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="50"/>
     </row>
     <row r="88" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="126"/>
-      <c r="C88" s="131" t="s">
+      <c r="B88" s="77"/>
+      <c r="C88" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D88" s="132"/>
-      <c r="E88" s="132"/>
-      <c r="F88" s="132"/>
-      <c r="G88" s="132"/>
-      <c r="H88" s="132"/>
-      <c r="I88" s="132"/>
-      <c r="J88" s="134"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="53"/>
     </row>
     <row r="89" spans="2:10" ht="290.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="127"/>
-      <c r="C89" s="63" t="e" vm="20">
+      <c r="B89" s="78"/>
+      <c r="C89" s="51" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="D89" s="64"/>
-      <c r="E89" s="46" t="e" vm="21">
+      <c r="D89" s="52"/>
+      <c r="E89" s="104" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="47"/>
+      <c r="F89" s="104"/>
+      <c r="G89" s="104"/>
+      <c r="H89" s="104"/>
+      <c r="I89" s="104"/>
+      <c r="J89" s="105"/>
     </row>
     <row r="90" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="119" t="s">
+      <c r="B90" s="67" t="s">
         <v>69</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -6464,20 +6503,20 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="120"/>
-      <c r="C91" s="57" t="s">
+      <c r="B91" s="68"/>
+      <c r="C91" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D91" s="58"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="58"/>
-      <c r="H91" s="58"/>
-      <c r="I91" s="58"/>
-      <c r="J91" s="59"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="50"/>
     </row>
     <row r="92" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="120"/>
+      <c r="B92" s="68"/>
       <c r="C92" s="7" t="s">
         <v>72</v>
       </c>
@@ -6490,26 +6529,26 @@
       <c r="F92" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G92" s="36"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="41"/>
     </row>
     <row r="93" spans="2:10" ht="151.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="120"/>
-      <c r="C93" s="57" t="s">
+      <c r="B93" s="68"/>
+      <c r="C93" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="59"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="50"/>
     </row>
     <row r="94" spans="2:10" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="120"/>
+      <c r="B94" s="68"/>
       <c r="C94" s="7" t="s">
         <v>74</v>
       </c>
@@ -6522,26 +6561,26 @@
       <c r="F94" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G94" s="51"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="52"/>
-      <c r="J94" s="53"/>
+      <c r="G94" s="73"/>
+      <c r="H94" s="74"/>
+      <c r="I94" s="74"/>
+      <c r="J94" s="75"/>
     </row>
     <row r="95" spans="2:10" ht="264" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="120"/>
-      <c r="C95" s="122" t="s">
+      <c r="B95" s="68"/>
+      <c r="C95" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="D95" s="123"/>
-      <c r="E95" s="123"/>
-      <c r="F95" s="123"/>
-      <c r="G95" s="123"/>
-      <c r="H95" s="123"/>
-      <c r="I95" s="123"/>
-      <c r="J95" s="124"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="71"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="71"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
+      <c r="J95" s="72"/>
     </row>
     <row r="96" spans="2:10" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="120"/>
+      <c r="B96" s="68"/>
       <c r="C96" s="7" t="s">
         <v>76</v>
       </c>
@@ -6554,26 +6593,26 @@
       <c r="F96" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G96" s="51"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="52"/>
-      <c r="J96" s="53"/>
+      <c r="G96" s="73"/>
+      <c r="H96" s="74"/>
+      <c r="I96" s="74"/>
+      <c r="J96" s="75"/>
     </row>
     <row r="97" spans="2:25" ht="201.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="120"/>
-      <c r="C97" s="98" t="s">
+      <c r="B97" s="68"/>
+      <c r="C97" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="D97" s="99"/>
-      <c r="E97" s="99"/>
-      <c r="F97" s="99"/>
-      <c r="G97" s="99"/>
-      <c r="H97" s="99"/>
-      <c r="I97" s="99"/>
-      <c r="J97" s="100"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="65"/>
+      <c r="G97" s="65"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="65"/>
+      <c r="J97" s="66"/>
     </row>
     <row r="98" spans="2:25" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="120"/>
+      <c r="B98" s="68"/>
       <c r="C98" s="7" t="s">
         <v>78</v>
       </c>
@@ -6586,35 +6625,35 @@
       <c r="F98" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G98" s="51"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="52"/>
-      <c r="J98" s="53"/>
+      <c r="G98" s="73"/>
+      <c r="H98" s="74"/>
+      <c r="I98" s="74"/>
+      <c r="J98" s="75"/>
     </row>
     <row r="99" spans="2:25" ht="161.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="120"/>
-      <c r="C99" s="98" t="s">
+      <c r="B99" s="68"/>
+      <c r="C99" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="D99" s="99"/>
-      <c r="E99" s="99"/>
-      <c r="F99" s="99"/>
-      <c r="G99" s="99"/>
-      <c r="H99" s="99"/>
-      <c r="I99" s="99"/>
-      <c r="J99" s="100"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="66"/>
       <c r="Q99" s="20"/>
       <c r="R99" s="24"/>
-      <c r="S99" s="35"/>
-      <c r="T99" s="35"/>
-      <c r="U99" s="35"/>
-      <c r="V99" s="35"/>
-      <c r="W99" s="35"/>
-      <c r="X99" s="35"/>
-      <c r="Y99" s="35"/>
+      <c r="S99" s="37"/>
+      <c r="T99" s="37"/>
+      <c r="U99" s="37"/>
+      <c r="V99" s="37"/>
+      <c r="W99" s="37"/>
+      <c r="X99" s="37"/>
+      <c r="Y99" s="37"/>
     </row>
     <row r="100" spans="2:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="120"/>
+      <c r="B100" s="68"/>
       <c r="C100" s="7" t="s">
         <v>80</v>
       </c>
@@ -6627,10 +6666,10 @@
       <c r="F100" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G100" s="51"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="52"/>
-      <c r="J100" s="53"/>
+      <c r="G100" s="73"/>
+      <c r="H100" s="74"/>
+      <c r="I100" s="74"/>
+      <c r="J100" s="75"/>
       <c r="Q100" s="20"/>
       <c r="R100" s="25"/>
       <c r="S100" s="25"/>
@@ -6642,29 +6681,29 @@
       <c r="Y100" s="25"/>
     </row>
     <row r="101" spans="2:25" ht="157.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="120"/>
-      <c r="C101" s="98" t="s">
+      <c r="B101" s="68"/>
+      <c r="C101" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D101" s="99"/>
-      <c r="E101" s="99"/>
-      <c r="F101" s="99"/>
-      <c r="G101" s="99"/>
-      <c r="H101" s="99"/>
-      <c r="I101" s="99"/>
-      <c r="J101" s="100"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="66"/>
       <c r="Q101" s="20"/>
       <c r="R101" s="24"/>
-      <c r="S101" s="35"/>
-      <c r="T101" s="35"/>
-      <c r="U101" s="35"/>
-      <c r="V101" s="35"/>
-      <c r="W101" s="35"/>
-      <c r="X101" s="35"/>
-      <c r="Y101" s="35"/>
+      <c r="S101" s="37"/>
+      <c r="T101" s="37"/>
+      <c r="U101" s="37"/>
+      <c r="V101" s="37"/>
+      <c r="W101" s="37"/>
+      <c r="X101" s="37"/>
+      <c r="Y101" s="37"/>
     </row>
     <row r="102" spans="2:25" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="120"/>
+      <c r="B102" s="68"/>
       <c r="C102" s="7" t="s">
         <v>82</v>
       </c>
@@ -6677,10 +6716,10 @@
       <c r="F102" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G102" s="36"/>
-      <c r="H102" s="37"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="38"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="41"/>
       <c r="Q102" s="20"/>
       <c r="R102" s="26"/>
       <c r="S102" s="26"/>
@@ -6692,29 +6731,29 @@
       <c r="Y102" s="26"/>
     </row>
     <row r="103" spans="2:25" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="120"/>
-      <c r="C103" s="98" t="s">
+      <c r="B103" s="68"/>
+      <c r="C103" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D103" s="99"/>
-      <c r="E103" s="99"/>
-      <c r="F103" s="99"/>
-      <c r="G103" s="99"/>
-      <c r="H103" s="99"/>
-      <c r="I103" s="99"/>
-      <c r="J103" s="100"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="66"/>
       <c r="Q103" s="20"/>
       <c r="R103" s="24"/>
-      <c r="S103" s="35"/>
-      <c r="T103" s="35"/>
-      <c r="U103" s="35"/>
-      <c r="V103" s="35"/>
-      <c r="W103" s="35"/>
-      <c r="X103" s="35"/>
-      <c r="Y103" s="35"/>
+      <c r="S103" s="37"/>
+      <c r="T103" s="37"/>
+      <c r="U103" s="37"/>
+      <c r="V103" s="37"/>
+      <c r="W103" s="37"/>
+      <c r="X103" s="37"/>
+      <c r="Y103" s="37"/>
     </row>
     <row r="104" spans="2:25" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="120"/>
+      <c r="B104" s="68"/>
       <c r="C104" s="7" t="s">
         <v>84</v>
       </c>
@@ -6727,10 +6766,10 @@
       <c r="F104" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G104" s="36"/>
-      <c r="H104" s="37"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="38"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="41"/>
       <c r="Q104" s="20"/>
       <c r="R104" s="25"/>
       <c r="S104" s="25"/>
@@ -6742,26 +6781,26 @@
       <c r="Y104" s="25"/>
     </row>
     <row r="105" spans="2:25" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B105" s="121"/>
-      <c r="C105" s="118" t="s">
+      <c r="B105" s="69"/>
+      <c r="C105" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D105" s="58"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="58"/>
-      <c r="H105" s="58"/>
-      <c r="I105" s="58"/>
-      <c r="J105" s="59"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="49"/>
+      <c r="I105" s="49"/>
+      <c r="J105" s="50"/>
       <c r="Q105" s="20"/>
-      <c r="R105" s="34"/>
-      <c r="S105" s="35"/>
-      <c r="T105" s="35"/>
-      <c r="U105" s="35"/>
-      <c r="V105" s="35"/>
-      <c r="W105" s="35"/>
-      <c r="X105" s="35"/>
-      <c r="Y105" s="35"/>
+      <c r="R105" s="38"/>
+      <c r="S105" s="37"/>
+      <c r="T105" s="37"/>
+      <c r="U105" s="37"/>
+      <c r="V105" s="37"/>
+      <c r="W105" s="37"/>
+      <c r="X105" s="37"/>
+      <c r="Y105" s="37"/>
     </row>
     <row r="106" spans="2:25" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="28" t="s">
@@ -6791,17 +6830,17 @@
       <c r="J106" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N106" s="93" t="s">
+      <c r="N106" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="O106" s="94"/>
-      <c r="P106" s="94"/>
-      <c r="Q106" s="95">
+      <c r="O106" s="83"/>
+      <c r="P106" s="83"/>
+      <c r="Q106" s="84">
         <f>SUM(Q107:S109)</f>
         <v>346</v>
       </c>
-      <c r="R106" s="96"/>
-      <c r="S106" s="97"/>
+      <c r="R106" s="85"/>
+      <c r="S106" s="86"/>
     </row>
     <row r="107" spans="2:25" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
@@ -6831,17 +6870,17 @@
       <c r="J107" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N107" s="81" t="s">
+      <c r="N107" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="O107" s="82"/>
-      <c r="P107" s="83"/>
-      <c r="Q107" s="87">
+      <c r="O107" s="119"/>
+      <c r="P107" s="120"/>
+      <c r="Q107" s="124">
         <f>SUMIF((J:J),"SP1",(H:H))</f>
         <v>58</v>
       </c>
-      <c r="R107" s="88"/>
-      <c r="S107" s="89"/>
+      <c r="R107" s="125"/>
+      <c r="S107" s="126"/>
       <c r="U107" s="32">
         <f>Q106-Q107</f>
         <v>288</v>
@@ -6883,17 +6922,17 @@
       <c r="J108" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N108" s="84" t="s">
+      <c r="N108" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="O108" s="85"/>
-      <c r="P108" s="86"/>
-      <c r="Q108" s="90">
+      <c r="O108" s="122"/>
+      <c r="P108" s="123"/>
+      <c r="Q108" s="127">
         <f>SUMIF((J:J),"SP2",(H:H))</f>
         <v>147</v>
       </c>
-      <c r="R108" s="91"/>
-      <c r="S108" s="92"/>
+      <c r="R108" s="128"/>
+      <c r="S108" s="129"/>
       <c r="U108" s="33">
         <f>Q106-Q110</f>
         <v>230.66666666666669</v>
@@ -6935,17 +6974,17 @@
       <c r="J109" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N109" s="84" t="s">
+      <c r="N109" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="O109" s="85"/>
-      <c r="P109" s="86"/>
-      <c r="Q109" s="90">
+      <c r="O109" s="122"/>
+      <c r="P109" s="123"/>
+      <c r="Q109" s="127">
         <f>SUMIF((J:J),"SP3",(H:H))</f>
         <v>141</v>
       </c>
-      <c r="R109" s="91"/>
-      <c r="S109" s="92"/>
+      <c r="R109" s="128"/>
+      <c r="S109" s="129"/>
       <c r="U109" s="31"/>
       <c r="V109" s="31"/>
       <c r="W109" s="31"/>
@@ -6978,17 +7017,17 @@
       <c r="J110" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N110" s="69" t="s">
+      <c r="N110" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="O110" s="70"/>
-      <c r="P110" s="71"/>
-      <c r="Q110" s="72">
+      <c r="O110" s="110"/>
+      <c r="P110" s="111"/>
+      <c r="Q110" s="112">
         <f>AVERAGE(Q107:S109)</f>
         <v>115.33333333333333</v>
       </c>
-      <c r="R110" s="73"/>
-      <c r="S110" s="74"/>
+      <c r="R110" s="113"/>
+      <c r="S110" s="114"/>
     </row>
     <row r="111" spans="2:25" ht="75.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
@@ -7487,7 +7526,7 @@
       <c r="B128" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C128" s="39" t="s">
+      <c r="C128" s="34" t="s">
         <v>137</v>
       </c>
       <c r="D128" s="12" t="s">
@@ -7540,13 +7579,13 @@
       <c r="J129" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="O129" s="41"/>
+      <c r="O129" s="36"/>
     </row>
     <row r="130" spans="2:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C130" s="40" t="s">
+      <c r="C130" s="35" t="s">
         <v>141</v>
       </c>
       <c r="D130" s="12" t="s">
@@ -7571,11 +7610,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="131" spans="2:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C131" s="40" t="s">
+      <c r="C131" s="35" t="s">
         <v>141</v>
       </c>
       <c r="D131" s="12" t="s">
@@ -7600,44 +7639,30 @@
         <v>97</v>
       </c>
     </row>
-    <row r="132" spans="2:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="8" t="s">
+    <row r="132" spans="2:15" ht="317.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="54" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C132" s="55"/>
+      <c r="D132" s="55" t="e" vm="23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E132" s="55"/>
+      <c r="F132" s="55"/>
+      <c r="G132" s="55"/>
+      <c r="H132" s="55"/>
+      <c r="I132" s="55"/>
+      <c r="J132" s="56"/>
+    </row>
+    <row r="133" spans="2:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C132" s="40" t="s">
+      <c r="C133" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D133" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" s="13">
-        <v>13</v>
-      </c>
-      <c r="I132" s="13">
-        <v>1</v>
-      </c>
-      <c r="J132" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="133" spans="2:15" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>24</v>
@@ -7658,46 +7683,139 @@
         <v>97</v>
       </c>
     </row>
-    <row r="136" spans="2:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="19"/>
-    </row>
-    <row r="137" spans="2:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="19"/>
-    </row>
-    <row r="141" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:15" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" s="13">
+        <v>13</v>
+      </c>
+      <c r="I134" s="13">
+        <v>1</v>
+      </c>
+      <c r="J134" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="19"/>
+    </row>
+    <row r="138" spans="2:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="19"/>
     </row>
-    <row r="142" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="2:2" ht="336" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="20"/>
-    </row>
-    <row r="146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="19"/>
+    </row>
+    <row r="143" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="2:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="2:2" ht="336" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="20"/>
     </row>
-    <row r="147" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="20"/>
     </row>
     <row r="148" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="20"/>
     </row>
-    <row r="149" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="20"/>
+    </row>
+    <row r="150" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B2:J133" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="104">
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="C82:J82"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C73:J73"/>
+  <autoFilter ref="B2:J134" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="106">
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="E89:J89"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="N110:P110"/>
+    <mergeCell ref="Q110:S110"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C12:J13"/>
+    <mergeCell ref="C15:J16"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C22:J23"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C27:J28"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="N107:P107"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="N109:P109"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="Q109:S109"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="C99:J99"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="B53:B68"/>
+    <mergeCell ref="B19:B32"/>
+    <mergeCell ref="B33:B52"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="B3:B18"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="G65:J65"/>
     <mergeCell ref="C63:J63"/>
     <mergeCell ref="C64:J64"/>
     <mergeCell ref="C66:J66"/>
@@ -7722,78 +7840,16 @@
     <mergeCell ref="C77:J77"/>
     <mergeCell ref="C78:J78"/>
     <mergeCell ref="C80:J80"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="C99:J99"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="B53:B68"/>
-    <mergeCell ref="B19:B32"/>
-    <mergeCell ref="B33:B52"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="B3:B18"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="N110:P110"/>
-    <mergeCell ref="Q110:S110"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C12:J13"/>
-    <mergeCell ref="C15:J16"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C22:J23"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C27:J28"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="N107:P107"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="N109:P109"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="Q109:S109"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="E89:J89"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="C82:J82"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:J132"/>
   </mergeCells>
   <conditionalFormatting sqref="B20:C22 R100:R105">
     <cfRule type="cellIs" dxfId="180" priority="679" operator="equal">
@@ -7837,7 +7893,7 @@
       <formula>"Feito"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:J4 B5:G5 B6:C8 B9:G9 B10:C12 B13 B14:J14 B15:C15 B16:B17 B18:C18 B19:J19 B23 B24:G24 B28 B29:G29 B33:J36 B37:G37 B38:J40 B41:G41 B42:J42 B43:C43 B44:J44 B45:G45 B46:J46 B47:C48 B49:G49 B50:J50 B51:C51 B52:J56 B57:G57 B58:J60 B61:G61 B62:J64 B65:G65 B90 C99 C101 C103 C105 B106:J133 B134:F134 B135 B137:B139 B142:B144 F142:F1048576 G143:J1048576 C145:E148 B149:E1048576">
+  <conditionalFormatting sqref="B1:J4 B5:G5 B6:C8 B9:G9 B10:C12 B13 B14:J14 B15:C15 B16:B17 B18:C18 B19:J19 B23 B24:G24 B28 B29:G29 B33:J36 B37:G37 B38:J40 B41:G41 B42:J42 B43:C43 B44:J44 B45:G45 B46:J46 B47:C48 B49:G49 B50:J50 B51:C51 B52:J56 B57:G57 B58:J60 B61:G61 B62:J64 B65:G65 B90 C99 C101 C103 C105 B106:J131 B132 B133:J134 B135:F135 B136 B138:B140 B143:B145 F143:F1048576 G144:J1048576 C146:E149 B150:E1048576">
     <cfRule type="cellIs" dxfId="168" priority="911" operator="equal">
       <formula>"Pendente"</formula>
     </cfRule>
@@ -7873,7 +7929,7 @@
       <formula>"Feito"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70:C93 C102:G102 B134:F134">
+  <conditionalFormatting sqref="C70:C93 C102:G102 B135:F135">
     <cfRule type="cellIs" dxfId="158" priority="30" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
@@ -7921,7 +7977,7 @@
       <formula>"Feito"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C104:G104 C98:G98 C100:G100 D96:J96 B1:J4 B5:G5 B6:C8 B9:G9 B10:C12 B13 B14:J14 B15:C15 B16:B17 B18:C18 B19:J19 B23 B24:G24 B28 B29:G29 B33:J36 B37:G37 B38:J40 B41:G41 B42:J42 B43:C43 B44:J44 B45:G45 B46:J46 B47:C48 B49:G49 B50:J50 B51:C51 B52:J56 B57:G57 B58:J60 B61:G61 B62:J64 B65:G65 B90 C99 C101 C103 C105 B106:J133 B135 B137:B139 B142:B144 F142:F1048576 G143:J1048576 C145:E148 B149:E1048576">
+  <conditionalFormatting sqref="C104:G104 C98:G98 C100:G100 D96:J96 B1:J4 B5:G5 B6:C8 B9:G9 B10:C12 B13 B14:J14 B15:C15 B16:B17 B18:C18 B19:J19 B23 B24:G24 B28 B29:G29 B33:J36 B37:G37 B38:J40 B41:G41 B42:J42 B43:C43 B44:J44 B45:G45 B46:J46 B47:C48 B49:G49 B50:J50 B51:C51 B52:J56 B57:G57 B58:J60 B61:G61 B62:J64 B65:G65 B90 C99 C101 C103 C105 B106:J131 B132 B133:J134 B136 B138:B140 B143:B145 F143:F1048576 G144:J1048576 C146:E149 B150:E1048576">
     <cfRule type="cellIs" dxfId="146" priority="759" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
@@ -8187,7 +8243,7 @@
       <formula>"Essencial"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D106:E133">
+  <conditionalFormatting sqref="D106:E131 D133:E134">
     <cfRule type="cellIs" dxfId="74" priority="560" operator="equal">
       <formula>"Importante"</formula>
     </cfRule>
@@ -8302,7 +8358,7 @@
       <formula>"Feito"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41 F106:F133">
+  <conditionalFormatting sqref="F41 F106:F131 F133:F134">
     <cfRule type="cellIs" dxfId="43" priority="802" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
